--- a/Diagramas/funciones.xlsx
+++ b/Diagramas/funciones.xlsx
@@ -13,9 +13,11 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$B$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja2!$A$1:$C$22</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="96">
   <si>
     <t>tabla</t>
   </si>
@@ -242,9 +244,6 @@
     <t>venta</t>
   </si>
   <si>
-    <t>configuracion</t>
-  </si>
-  <si>
     <t>administracion</t>
   </si>
   <si>
@@ -270,6 +269,54 @@
   </si>
   <si>
     <t>general</t>
+  </si>
+  <si>
+    <t>permisos</t>
+  </si>
+  <si>
+    <t>nota credito</t>
+  </si>
+  <si>
+    <t>nota debito</t>
+  </si>
+  <si>
+    <t>detalle</t>
+  </si>
+  <si>
+    <t>asignacion</t>
+  </si>
+  <si>
+    <t>egreso</t>
+  </si>
+  <si>
+    <t>ingreso</t>
+  </si>
+  <si>
+    <t>salida diario</t>
+  </si>
+  <si>
+    <t>ingreso diario</t>
+  </si>
+  <si>
+    <t>inventario</t>
+  </si>
+  <si>
+    <t>Adminsitracion</t>
+  </si>
+  <si>
+    <t>Seguridad</t>
+  </si>
+  <si>
+    <t>Ubicación</t>
+  </si>
+  <si>
+    <t>Transacciones</t>
+  </si>
+  <si>
+    <t>Proveedores</t>
+  </si>
+  <si>
+    <t>proveedores</t>
   </si>
 </sst>
 </file>
@@ -589,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,7 +660,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -624,10 +671,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -635,7 +682,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -646,7 +693,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -657,7 +704,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -668,7 +715,7 @@
         <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
         <v>41</v>
@@ -679,10 +726,10 @@
         <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -690,10 +737,10 @@
         <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -701,10 +748,10 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -712,10 +759,10 @@
         <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -723,10 +770,10 @@
         <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -734,10 +781,10 @@
         <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -745,10 +792,10 @@
         <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -756,10 +803,10 @@
         <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -767,10 +814,10 @@
         <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -778,10 +825,10 @@
         <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -789,10 +836,10 @@
         <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -800,10 +847,10 @@
         <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -811,40 +858,40 @@
         <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
         <v>14</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -852,7 +899,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -863,10 +910,13 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -874,7 +924,10 @@
         <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -882,351 +935,483 @@
         <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="C29" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>40</v>
       </c>
-      <c r="B32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>46</v>
       </c>
-      <c r="B33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>67</v>
       </c>
-      <c r="B34" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>68</v>
       </c>
-      <c r="B35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="s">
         <v>5</v>
       </c>
-      <c r="B36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B37" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B39" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>18</v>
       </c>
-      <c r="B40" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>8</v>
       </c>
-      <c r="B41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>9</v>
       </c>
-      <c r="B42" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>10</v>
       </c>
-      <c r="B43" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" t="s">
         <v>16</v>
       </c>
-      <c r="B44" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" t="s">
         <v>17</v>
       </c>
-      <c r="B45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" t="s">
         <v>19</v>
       </c>
-      <c r="B46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>24</v>
-      </c>
-      <c r="B48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>25</v>
       </c>
-      <c r="B49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>26</v>
       </c>
-      <c r="B50" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>27</v>
       </c>
-      <c r="B51" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B54" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>29</v>
       </c>
-      <c r="B52" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>30</v>
       </c>
-      <c r="B53" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B56" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>31</v>
       </c>
-      <c r="B54" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B57" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>32</v>
       </c>
-      <c r="B55" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>33</v>
-      </c>
-      <c r="B56" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="B58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>34</v>
       </c>
-      <c r="B57" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="B59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>35</v>
       </c>
-      <c r="B58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="B60" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>36</v>
       </c>
-      <c r="B59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="B61" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>37</v>
       </c>
-      <c r="B60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="B62" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>38</v>
       </c>
-      <c r="B61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="B63" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>44</v>
       </c>
-      <c r="B62" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="B64" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>45</v>
       </c>
-      <c r="B63" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="B65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>47</v>
       </c>
-      <c r="B64" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>48</v>
-      </c>
-      <c r="B65" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="B66" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" t="s">
         <v>49</v>
       </c>
-      <c r="B66" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>59</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="C67" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="C68" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>54</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="C69" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="C70" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1237,4 +1422,370 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21:H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C22">
+    <sortState ref="A2:C22">
+      <sortCondition ref="C1:C22"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>